--- a/recruitment/src/main/resources/TestData/CRUD.xlsx
+++ b/recruitment/src/main/resources/TestData/CRUD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12CF707-E1BA-47DA-8702-6B2E2A399FEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD077E6A-FAFD-4F98-AFE9-CF052C0D6E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145409FC-5FF7-4050-B344-EEEAF432E742}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA17C5D-F6F8-4AA1-ABEE-99A919F40FA1}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/recruitment/src/main/resources/TestData/CRUD.xlsx
+++ b/recruitment/src/main/resources/TestData/CRUD.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD077E6A-FAFD-4F98-AFE9-CF052C0D6E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3B0613-D4A8-4744-9437-7E79FA2718D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="candidateTags" sheetId="8" r:id="rId2"/>
-    <sheet name="ArchivePosition" sheetId="2" r:id="rId3"/>
-    <sheet name="JobPortals" sheetId="5" r:id="rId4"/>
-    <sheet name="Recruiters" sheetId="6" r:id="rId5"/>
-    <sheet name="RecruitmentSettings" sheetId="7" r:id="rId6"/>
-    <sheet name="EvalForms" sheetId="3" r:id="rId7"/>
-    <sheet name="HiringWF" sheetId="4" r:id="rId8"/>
+    <sheet name="candidateTags" sheetId="8" r:id="rId1"/>
+    <sheet name="ArchivePosition" sheetId="2" r:id="rId2"/>
+    <sheet name="JobPortals" sheetId="5" r:id="rId3"/>
+    <sheet name="Recruiters" sheetId="6" r:id="rId4"/>
+    <sheet name="RecruitmentSettings" sheetId="7" r:id="rId5"/>
+    <sheet name="EvalForms" sheetId="3" r:id="rId6"/>
+    <sheet name="HiringWF" sheetId="4" r:id="rId7"/>
+    <sheet name="HiringWFLineWise" sheetId="9" r:id="rId8"/>
+    <sheet name="HiringWFThirdPage" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -254,13 +255,79 @@
   </si>
   <si>
     <t>firstSetStepType</t>
+  </si>
+  <si>
+    <t>created through automation script</t>
+  </si>
+  <si>
+    <t>Create Hiring Workflow</t>
+  </si>
+  <si>
+    <t>AssessmentName</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Third Round</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Fourth Round</t>
+  </si>
+  <si>
+    <t>LineWiseBody</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>HirWFThirdPageData</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>StepType</t>
+  </si>
+  <si>
+    <t>EvalType</t>
+  </si>
+  <si>
+    <t>assessmentOptions</t>
+  </si>
+  <si>
+    <t>assessmentIDs</t>
+  </si>
+  <si>
+    <t>expiry</t>
+  </si>
+  <si>
+    <t>triggerType</t>
+  </si>
+  <si>
+    <t>cutOffPercent</t>
+  </si>
+  <si>
+    <t>assessmentEvaluators</t>
+  </si>
+  <si>
+    <t>Phases</t>
+  </si>
+  <si>
+    <t>To check Third Page functionality in Jobs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +341,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -311,6 +386,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,49 +666,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F075D0F-0522-487D-89E2-49B365A38143}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -687,7 +720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366A209A-67DD-4E70-B6B5-4226A4866EB2}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -743,7 +776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E77A57-7934-4597-AE4F-EC55E59946E5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -791,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB133E5A-98B7-4759-8AC5-5B43A7C89257}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -853,7 +886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03148AF8-D98C-4D18-9EDD-EB78C6715C96}">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -1026,7 +1059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145409FC-5FF7-4050-B344-EEEAF432E742}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1101,12 +1134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA17C5D-F6F8-4AA1-ABEE-99A919F40FA1}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,9 +1147,11 @@
     <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +1182,14 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1178,6 +1219,149 @@
       </c>
       <c r="J2" t="s">
         <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117E998F-DB26-4438-9AF6-8A02E04FF10C}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/recruitment/src/main/resources/TestData/CRUD.xlsx
+++ b/recruitment/src/main/resources/TestData/CRUD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Automation_Project\recruitment\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3B0613-D4A8-4744-9437-7E79FA2718D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908B82E-FE7D-4216-B34D-DBB4BF3C4C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidateTags" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -321,13 +321,40 @@
   </si>
   <si>
     <t>To check Third Page functionality in Jobs</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Fifth Round</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last </t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +373,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1138,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA17C5D-F6F8-4AA1-ABEE-99A919F40FA1}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1222,6 +1255,9 @@
       </c>
       <c r="K2" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,8 +1399,136 @@
       <c r="B2" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/recruitment/src/main/resources/TestData/CRUD.xlsx
+++ b/recruitment/src/main/resources/TestData/CRUD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Automation_Project\recruitment\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\Desktop\Automation_Project\recruitment\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908B82E-FE7D-4216-B34D-DBB4BF3C4C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF94CE8-0E1B-4A06-9ED4-5DF24CB5E8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidateTags" sheetId="8" r:id="rId1"/>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA17C5D-F6F8-4AA1-ABEE-99A919F40FA1}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1343,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
